--- a/csv/nn/nn_pc25_init.xlsx
+++ b/csv/nn/nn_pc25_init.xlsx
@@ -29,268 +29,268 @@
     <t>sd</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>87</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
   </si>
   <si>
     <t>88</t>
@@ -373,16 +373,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03928371006591931</v>
+        <v>0.07190099503080435</v>
       </c>
     </row>
   </sheetData>
@@ -418,16 +418,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03928371006591931</v>
+        <v>0.07190099503080435</v>
       </c>
     </row>
   </sheetData>
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
@@ -496,10 +496,10 @@
         <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7175925925925926</v>
+        <v>0.7129629629629629</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05391083936299868</v>
+        <v>0.03364055948997215</v>
       </c>
     </row>
     <row r="3">
@@ -513,10 +513,10 @@
         <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>0.47685185185185186</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="E3" t="n">
-        <v>0.12597357486308788</v>
+        <v>0.0649469552472229</v>
       </c>
     </row>
     <row r="4">
@@ -530,10 +530,10 @@
         <v>0.01</v>
       </c>
       <c r="D4" t="n">
-        <v>0.39814814814814814</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07590333900710813</v>
+        <v>0.04864416865393961</v>
       </c>
     </row>
     <row r="5">
@@ -547,10 +547,10 @@
         <v>0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3287037037037037</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="E5" t="n">
-        <v>0.13195662711788755</v>
+        <v>0.0908634846322007</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +564,10 @@
         <v>0.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.33796296296296297</v>
+        <v>0.3101851851851852</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09528493116435507</v>
+        <v>0.09198877190385032</v>
       </c>
     </row>
     <row r="7">
@@ -581,10 +581,10 @@
         <v>0.01</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0.30092592592592593</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06085806194501846</v>
+        <v>0.08130241266116736</v>
       </c>
     </row>
     <row r="8">
@@ -598,10 +598,10 @@
         <v>0.01</v>
       </c>
       <c r="D8" t="n">
-        <v>0.29166666666666663</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09899183156225257</v>
+        <v>0.06273105439242342</v>
       </c>
     </row>
     <row r="9">
@@ -615,10 +615,10 @@
         <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>0.30092592592592593</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0643501864959039</v>
+        <v>0.09728833730787924</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +632,10 @@
         <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08364140585656454</v>
+        <v>0.09460770203292444</v>
       </c>
     </row>
     <row r="11">
@@ -649,10 +649,10 @@
         <v>0.01</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07027283689263064</v>
+        <v>0.09460770203292446</v>
       </c>
     </row>
     <row r="12">
@@ -666,10 +666,10 @@
         <v>0.01</v>
       </c>
       <c r="D12" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.28703703703703703</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08857002995235644</v>
+        <v>0.0600068583185913</v>
       </c>
     </row>
     <row r="13">
@@ -683,10 +683,10 @@
         <v>0.01</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1045517573207057</v>
+        <v>0.047844484010236346</v>
       </c>
     </row>
     <row r="14">
@@ -700,10 +700,10 @@
         <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21296296296296297</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E14" t="n">
-        <v>0.051719407569514604</v>
+        <v>0.05270462766947299</v>
       </c>
     </row>
     <row r="15">
@@ -717,10 +717,10 @@
         <v>0.05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.6712962962962963</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07401618108041241</v>
+        <v>0.06897992789699692</v>
       </c>
     </row>
     <row r="16">
@@ -734,10 +734,10 @@
         <v>0.05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4351851851851852</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E16" t="n">
-        <v>0.10343881513902921</v>
+        <v>0.09742043287083432</v>
       </c>
     </row>
     <row r="17">
@@ -751,10 +751,10 @@
         <v>0.05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="E17" t="n">
-        <v>0.046481112585226414</v>
+        <v>0.1379598557939939</v>
       </c>
     </row>
     <row r="18">
@@ -768,10 +768,10 @@
         <v>0.05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.33796296296296297</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0941990275434065</v>
+        <v>0.05936044601786891</v>
       </c>
     </row>
     <row r="19">
@@ -785,10 +785,10 @@
         <v>0.05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09460770203292444</v>
+        <v>0.08900455437554011</v>
       </c>
     </row>
     <row r="20">
@@ -802,10 +802,10 @@
         <v>0.05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.27314814814814814</v>
+        <v>0.2824074074074074</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08857002995235644</v>
+        <v>0.13195662711788755</v>
       </c>
     </row>
     <row r="21">
@@ -819,10 +819,10 @@
         <v>0.05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24074074074074073</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="E21" t="n">
-        <v>0.11609205939746281</v>
+        <v>0.06747198778606177</v>
       </c>
     </row>
     <row r="22">
@@ -836,10 +836,10 @@
         <v>0.05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.24074074074074076</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09728833730787924</v>
+        <v>0.07590333900710813</v>
       </c>
     </row>
     <row r="23">
@@ -853,10 +853,10 @@
         <v>0.05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25925925925925924</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06252571487457086</v>
+        <v>0.045360921162651446</v>
       </c>
     </row>
     <row r="24">
@@ -873,7 +873,7 @@
         <v>0.22685185185185186</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09847081830478088</v>
+        <v>0.0643501864959039</v>
       </c>
     </row>
     <row r="25">
@@ -887,10 +887,10 @@
         <v>0.05</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20833333333333331</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05196746370519363</v>
+        <v>0.030429030972509232</v>
       </c>
     </row>
     <row r="26">
@@ -904,10 +904,10 @@
         <v>0.05</v>
       </c>
       <c r="D26" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.17592592592592593</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05555555555555556</v>
+        <v>0.05462178223612083</v>
       </c>
     </row>
     <row r="27">
@@ -921,10 +921,10 @@
         <v>0.05</v>
       </c>
       <c r="D27" t="n">
-        <v>0.17592592592592593</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04182070292828227</v>
+        <v>0.07243558228002943</v>
       </c>
     </row>
     <row r="28">
@@ -938,10 +938,10 @@
         <v>0.1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.6990740740740741</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04182070292828229</v>
+        <v>0.05391083936299868</v>
       </c>
     </row>
     <row r="29">
@@ -955,10 +955,10 @@
         <v>0.1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06804138174397716</v>
+        <v>0.05196746370519364</v>
       </c>
     </row>
     <row r="30">
@@ -972,10 +972,10 @@
         <v>0.1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.28703703703703703</v>
+        <v>0.3101851851851852</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08900455437554011</v>
+        <v>0.09198877190385031</v>
       </c>
     </row>
     <row r="31">
@@ -989,10 +989,10 @@
         <v>0.1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.27314814814814814</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09460770203292446</v>
+        <v>0.09847081830478088</v>
       </c>
     </row>
     <row r="32">
@@ -1006,10 +1006,10 @@
         <v>0.1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.27314814814814814</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07741316654103142</v>
+        <v>0.07243558228002944</v>
       </c>
     </row>
     <row r="33">
@@ -1023,10 +1023,10 @@
         <v>0.1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.26851851851851855</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E33" t="n">
-        <v>0.11064717960214561</v>
+        <v>0.0643501864959039</v>
       </c>
     </row>
     <row r="34">
@@ -1043,7 +1043,7 @@
         <v>0.2175925925925926</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08857002995235644</v>
+        <v>0.056701151453314315</v>
       </c>
     </row>
     <row r="35">
@@ -1057,10 +1057,10 @@
         <v>0.1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.25</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07027283689263066</v>
+        <v>0.08501391800842985</v>
       </c>
     </row>
     <row r="36">
@@ -1074,10 +1074,10 @@
         <v>0.1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2175925925925926</v>
+        <v>0.17592592592592593</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08130241266116739</v>
+        <v>0.09240722185092333</v>
       </c>
     </row>
     <row r="37">
@@ -1091,10 +1091,10 @@
         <v>0.1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.24074074074074076</v>
       </c>
       <c r="E37" t="n">
-        <v>0.04784448401023635</v>
+        <v>0.104920114623817</v>
       </c>
     </row>
     <row r="38">
@@ -1108,10 +1108,10 @@
         <v>0.1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18055555555555555</v>
+        <v>0.16203703703703703</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04564354645876384</v>
+        <v>0.07539334439193439</v>
       </c>
     </row>
     <row r="39">
@@ -1125,10 +1125,10 @@
         <v>0.1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.17592592592592593</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0517194075695146</v>
+        <v>0.05270462766947299</v>
       </c>
     </row>
     <row r="40">
@@ -1142,10 +1142,10 @@
         <v>0.1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.19907407407407407</v>
+        <v>0.17592592592592593</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03247347762361144</v>
+        <v>0.07590333900710813</v>
       </c>
     </row>
     <row r="41">
@@ -1159,10 +1159,10 @@
         <v>0.25</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7175925925925926</v>
+        <v>0.6898148148148148</v>
       </c>
       <c r="E41" t="n">
-        <v>0.05096799609082552</v>
+        <v>0.03247347762361146</v>
       </c>
     </row>
     <row r="42">
@@ -1176,10 +1176,10 @@
         <v>0.25</v>
       </c>
       <c r="D42" t="n">
-        <v>0.48611111111111116</v>
+        <v>0.47685185185185186</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1065016084037823</v>
+        <v>0.08501391800842988</v>
       </c>
     </row>
     <row r="43">
@@ -1193,10 +1193,10 @@
         <v>0.25</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.25462962962962965</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1065016084037823</v>
+        <v>0.06670523575676991</v>
       </c>
     </row>
     <row r="44">
@@ -1210,10 +1210,10 @@
         <v>0.25</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="E44" t="n">
-        <v>0.06573421981221797</v>
+        <v>0.08501391800842985</v>
       </c>
     </row>
     <row r="45">
@@ -1227,10 +1227,10 @@
         <v>0.25</v>
       </c>
       <c r="D45" t="n">
-        <v>0.23148148148148145</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08900455437554011</v>
+        <v>0.11351564856501416</v>
       </c>
     </row>
     <row r="46">
@@ -1244,10 +1244,10 @@
         <v>0.25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25462962962962965</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E46" t="n">
-        <v>0.05936044601786891</v>
+        <v>0.09296222517045283</v>
       </c>
     </row>
     <row r="47">
@@ -1261,10 +1261,10 @@
         <v>0.25</v>
       </c>
       <c r="D47" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09072184232530289</v>
+        <v>0.08364140585656454</v>
       </c>
     </row>
     <row r="48">
@@ -1281,7 +1281,7 @@
         <v>0.21296296296296297</v>
       </c>
       <c r="E48" t="n">
-        <v>0.04536092116265145</v>
+        <v>0.0649469552472229</v>
       </c>
     </row>
     <row r="49">
@@ -1295,10 +1295,10 @@
         <v>0.25</v>
       </c>
       <c r="D49" t="n">
-        <v>0.21296296296296297</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E49" t="n">
-        <v>0.06000685831859131</v>
+        <v>0.08606629658238706</v>
       </c>
     </row>
     <row r="50">
@@ -1312,10 +1312,10 @@
         <v>0.25</v>
       </c>
       <c r="D50" t="n">
-        <v>0.18981481481481483</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="E50" t="n">
-        <v>0.08501391800842986</v>
+        <v>0.09728833730787924</v>
       </c>
     </row>
     <row r="51">
@@ -1329,10 +1329,10 @@
         <v>0.25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.17592592592592593</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04864416865393962</v>
+        <v>0.09406240814222441</v>
       </c>
     </row>
     <row r="52">
@@ -1349,7 +1349,7 @@
         <v>0.16203703703703703</v>
       </c>
       <c r="E52" t="n">
-        <v>0.02731089111806042</v>
+        <v>0.11306158415084937</v>
       </c>
     </row>
     <row r="53">
@@ -1363,10 +1363,10 @@
         <v>0.25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.15277777777777776</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="E53" t="n">
-        <v>0.034020690871988585</v>
+        <v>0.06953697539080958</v>
       </c>
     </row>
     <row r="54">
@@ -1380,10 +1380,10 @@
         <v>0.5</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E54" t="n">
-        <v>0.04969039949999535</v>
+        <v>0.06252571487457088</v>
       </c>
     </row>
     <row r="55">
@@ -1397,10 +1397,10 @@
         <v>0.5</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.49537037037037035</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06273105439242342</v>
+        <v>0.11575925777801477</v>
       </c>
     </row>
     <row r="56">
@@ -1414,10 +1414,10 @@
         <v>0.5</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3101851851851852</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="E56" t="n">
-        <v>0.08501391800842983</v>
+        <v>0.08002700161604409</v>
       </c>
     </row>
     <row r="57">
@@ -1431,10 +1431,10 @@
         <v>0.5</v>
       </c>
       <c r="D57" t="n">
-        <v>0.23148148148148148</v>
+        <v>0.24537037037037038</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08546652414232835</v>
+        <v>0.10155681172737972</v>
       </c>
     </row>
     <row r="58">
@@ -1448,10 +1448,10 @@
         <v>0.5</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22685185185185186</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="E58" t="n">
-        <v>0.05391083936299867</v>
+        <v>0.07590333900710813</v>
       </c>
     </row>
     <row r="59">
@@ -1465,10 +1465,10 @@
         <v>0.5</v>
       </c>
       <c r="D59" t="n">
-        <v>0.24537037037037038</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09029558228988813</v>
+        <v>0.04648111258522642</v>
       </c>
     </row>
     <row r="60">
@@ -1482,10 +1482,10 @@
         <v>0.5</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21296296296296297</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="E60" t="n">
-        <v>0.07590333900710815</v>
+        <v>0.0649469552472229</v>
       </c>
     </row>
     <row r="61">
@@ -1499,10 +1499,10 @@
         <v>0.5</v>
       </c>
       <c r="D61" t="n">
-        <v>0.21296296296296297</v>
+        <v>0.17129629629629628</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0872534739954796</v>
+        <v>0.07118196701400953</v>
       </c>
     </row>
     <row r="62">
@@ -1519,7 +1519,7 @@
         <v>0.16203703703703703</v>
       </c>
       <c r="E62" t="n">
-        <v>0.020910351464141136</v>
+        <v>0.08501391800842985</v>
       </c>
     </row>
     <row r="63">
@@ -1533,15 +1533,15 @@
         <v>0.5</v>
       </c>
       <c r="D63" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.1712962962962963</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03513641844631532</v>
+        <v>0.09029558228988814</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="B64" t="n">
         <v>15.0</v>
@@ -1550,15 +1550,15 @@
         <v>0.5</v>
       </c>
       <c r="D64" t="n">
-        <v>0.14814814814814814</v>
+        <v>0.125</v>
       </c>
       <c r="E64" t="n">
-        <v>0.060006858318591295</v>
+        <v>0.07190099503080435</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n">
         <v>20.0</v>
@@ -1567,15 +1567,15 @@
         <v>0.5</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.14351851851851852</v>
       </c>
       <c r="E65" t="n">
-        <v>0.04648111258522642</v>
+        <v>0.07938161203464003</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n">
         <v>25.0</v>
@@ -1587,12 +1587,12 @@
         <v>0.14814814814814814</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03364055948997213</v>
+        <v>0.07986614315869564</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" t="n">
         <v>1.0</v>
@@ -1601,15 +1601,15 @@
         <v>0.75</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="E67" t="n">
-        <v>0.04890782461571949</v>
+        <v>0.04564354645876386</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" t="n">
         <v>2.0</v>
@@ -1618,15 +1618,15 @@
         <v>0.75</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4027777777777778</v>
+        <v>0.4398148148148148</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05760122598146589</v>
+        <v>0.05936044601786891</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" t="n">
         <v>3.0</v>
@@ -1635,15 +1635,15 @@
         <v>0.75</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E69" t="n">
-        <v>0.06728111897994427</v>
+        <v>0.09781564923143894</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" t="n">
         <v>4.0</v>
@@ -1655,12 +1655,12 @@
         <v>0.25</v>
       </c>
       <c r="E70" t="n">
-        <v>0.04969039949999532</v>
+        <v>0.09296222517045283</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" t="n">
         <v>5.0</v>
@@ -1669,15 +1669,15 @@
         <v>0.75</v>
       </c>
       <c r="D71" t="n">
-        <v>0.18518518518518517</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0695369753908096</v>
+        <v>0.07118196701400953</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" t="n">
         <v>6.0</v>
@@ -1686,15 +1686,15 @@
         <v>0.75</v>
       </c>
       <c r="D72" t="n">
-        <v>0.19907407407407407</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="E72" t="n">
-        <v>0.07331789961047835</v>
+        <v>0.09899183156225257</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" t="n">
         <v>7.0</v>
@@ -1703,15 +1703,15 @@
         <v>0.75</v>
       </c>
       <c r="D73" t="n">
-        <v>0.14351851851851852</v>
+        <v>0.19907407407407407</v>
       </c>
       <c r="E73" t="n">
-        <v>0.047844484010236346</v>
+        <v>0.10888983370716324</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="n">
         <v>8.0</v>
@@ -1720,15 +1720,15 @@
         <v>0.75</v>
       </c>
       <c r="D74" t="n">
-        <v>0.18055555555555555</v>
+        <v>0.21296296296296297</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04212708580028639</v>
+        <v>0.0649469552472229</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="n">
         <v>9.0</v>
@@ -1740,12 +1740,12 @@
         <v>0.18518518518518517</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03795166950355407</v>
+        <v>0.0649469552472229</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="n">
         <v>10.0</v>
@@ -1754,15 +1754,15 @@
         <v>0.75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.18055555555555555</v>
+        <v>0.17129629629629628</v>
       </c>
       <c r="E76" t="n">
-        <v>0.045643546458763846</v>
+        <v>0.08681018506173498</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" t="n">
         <v>15.0</v>
@@ -1771,15 +1771,15 @@
         <v>0.75</v>
       </c>
       <c r="D77" t="n">
-        <v>0.17129629629629628</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03692111488403127</v>
+        <v>0.07190099503080435</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="n">
         <v>20.0</v>
@@ -1788,15 +1788,15 @@
         <v>0.75</v>
       </c>
       <c r="D78" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="E78" t="n">
-        <v>0.05270462766947299</v>
+        <v>0.0649469552472229</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="n">
         <v>25.0</v>
@@ -1805,15 +1805,15 @@
         <v>0.75</v>
       </c>
       <c r="D79" t="n">
-        <v>0.16203703703703703</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="E79" t="n">
-        <v>0.020910351464141136</v>
+        <v>0.07590333900710813</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" t="n">
         <v>1.0</v>
@@ -1822,15 +1822,15 @@
         <v>1.0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.75</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="E80" t="n">
-        <v>0.05270462766947301</v>
+        <v>0.02324055629261322</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -1839,15 +1839,15 @@
         <v>1.0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.46296296296296297</v>
+        <v>0.4351851851851852</v>
       </c>
       <c r="E81" t="n">
-        <v>0.05171940756951459</v>
+        <v>0.028688765527462336</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" t="n">
         <v>3.0</v>
@@ -1859,12 +1859,12 @@
         <v>0.25</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0878410461157883</v>
+        <v>0.10243938285880987</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" t="n">
         <v>4.0</v>
@@ -1873,15 +1873,15 @@
         <v>1.0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.24074074074074076</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="E83" t="n">
-        <v>0.07590333900710813</v>
+        <v>0.07384222976806254</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="n">
         <v>5.0</v>
@@ -1890,15 +1890,15 @@
         <v>1.0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.21296296296296297</v>
+        <v>0.17592592592592593</v>
       </c>
       <c r="E84" t="n">
-        <v>0.05462178223612084</v>
+        <v>0.0956889680204727</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" t="n">
         <v>6.0</v>
@@ -1907,15 +1907,15 @@
         <v>1.0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1898148148148148</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="E85" t="n">
-        <v>0.053910839362998654</v>
+        <v>0.05462178223612083</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" t="n">
         <v>7.0</v>
@@ -1924,15 +1924,15 @@
         <v>1.0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1712962962962963</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0643501864959039</v>
+        <v>0.08425417160057279</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" t="n">
         <v>8.0</v>
@@ -1941,15 +1941,15 @@
         <v>1.0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.18981481481481483</v>
+        <v>0.1712962962962963</v>
       </c>
       <c r="E87" t="n">
-        <v>0.032473477623611455</v>
+        <v>0.09365135413696506</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B88" t="n">
         <v>9.0</v>
@@ -1958,10 +1958,10 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E88" t="n">
-        <v>0.03928371006591931</v>
+        <v>0.08958064164776167</v>
       </c>
     </row>
     <row r="89">
@@ -1975,10 +1975,10 @@
         <v>1.0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.17129629629629628</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="E89" t="n">
-        <v>0.02091035146414114</v>
+        <v>0.0941990275434065</v>
       </c>
     </row>
     <row r="90">
@@ -1992,10 +1992,10 @@
         <v>1.0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.18518518518518517</v>
+        <v>0.17592592592592593</v>
       </c>
       <c r="E90" t="n">
-        <v>0.04864416865393962</v>
+        <v>0.07590333900710813</v>
       </c>
     </row>
     <row r="91">
@@ -2009,10 +2009,10 @@
         <v>1.0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.15277777777777776</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="E91" t="n">
-        <v>0.04212708580028639</v>
+        <v>0.06953697539080958</v>
       </c>
     </row>
     <row r="92">
@@ -2026,10 +2026,10 @@
         <v>1.0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1527777777777778</v>
+        <v>0.14351851851851852</v>
       </c>
       <c r="E92" t="n">
-        <v>0.029133579115837544</v>
+        <v>0.05391083936299866</v>
       </c>
     </row>
   </sheetData>
